--- a/data/trans_bre/P40_R2-Estudios-trans_bre.xlsx
+++ b/data/trans_bre/P40_R2-Estudios-trans_bre.xlsx
@@ -637,7 +637,7 @@
         <v>14.91322908544826</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>17.39547629730313</v>
+        <v>17.39547629730311</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4839599845003224</v>
@@ -649,7 +649,7 @@
         <v>0.4518843675382063</v>
       </c>
       <c r="J4" s="6" t="n">
-        <v>0.4457129504161046</v>
+        <v>0.4457129504161043</v>
       </c>
     </row>
     <row r="5">
@@ -660,28 +660,28 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>11.36477656202998</v>
+        <v>11.50470647026089</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>9.061674052714201</v>
+        <v>9.396201658101697</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>10.17057382403898</v>
+        <v>10.16698880684748</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>12.8740734174402</v>
+        <v>12.14512970841996</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.3381958597944503</v>
+        <v>0.3471059853107425</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2480868939012211</v>
+        <v>0.2552018442255755</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2887257599428008</v>
+        <v>0.2851494406909253</v>
       </c>
       <c r="J5" s="6" t="n">
-        <v>0.3084183613824296</v>
+        <v>0.2800440464606923</v>
       </c>
     </row>
     <row r="6">
@@ -692,28 +692,28 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>18.99621916013827</v>
+        <v>19.3650393208216</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>17.56440221158723</v>
+        <v>17.6193078433119</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>19.66981729644397</v>
+        <v>20.10960918755638</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>22.17422755968004</v>
+        <v>22.09362974667898</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.6411643537584125</v>
+        <v>0.6617166868354297</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.556945786297334</v>
+        <v>0.5605797694658295</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6430490035498092</v>
+        <v>0.6478414782484812</v>
       </c>
       <c r="J6" s="6" t="n">
-        <v>0.6252576813955039</v>
+        <v>0.6084703706498775</v>
       </c>
     </row>
     <row r="7">
@@ -737,7 +737,7 @@
         <v>5.862540783607857</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>5.548566210786385</v>
+        <v>5.548566210786382</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>1.006780995808394</v>
@@ -749,7 +749,7 @@
         <v>0.4901939304225967</v>
       </c>
       <c r="J7" s="6" t="n">
-        <v>0.3577306374754415</v>
+        <v>0.3577306374754414</v>
       </c>
     </row>
     <row r="8">
@@ -760,28 +760,28 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>6.470007872604501</v>
+        <v>6.539905618870985</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>3.121643069750617</v>
+        <v>3.323138065935898</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>3.353509784333964</v>
+        <v>3.716977961826344</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>3.266837939010097</v>
+        <v>3.04725208539526</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.644381370744356</v>
+        <v>0.6557787382609007</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2638008354556477</v>
+        <v>0.2748101140592217</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.2626002795420848</v>
+        <v>0.295388482300236</v>
       </c>
       <c r="J8" s="6" t="n">
-        <v>0.1923651035579304</v>
+        <v>0.1805128761518957</v>
       </c>
     </row>
     <row r="9">
@@ -792,28 +792,28 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>11.26346858680674</v>
+        <v>11.37474005438314</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>7.651308635706521</v>
+        <v>7.948241855313818</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>8.2989562894836</v>
+        <v>8.446163559139759</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>7.756560981337968</v>
+        <v>7.594154857319604</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>1.432475657324145</v>
+        <v>1.446982020566649</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.7789229185144755</v>
+        <v>0.8096024666066952</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.7522183413092817</v>
+        <v>0.7791572701541659</v>
       </c>
       <c r="J9" s="6" t="n">
-        <v>0.5400684948312113</v>
+        <v>0.5307166422841317</v>
       </c>
     </row>
     <row r="10">
@@ -837,7 +837,7 @@
         <v>2.048479877552777</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>2.003732254263041</v>
+        <v>2.003732254263042</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.60550507455018</v>
@@ -849,7 +849,7 @@
         <v>0.2464035216325037</v>
       </c>
       <c r="J10" s="6" t="n">
-        <v>0.1643313676329196</v>
+        <v>0.1643313676329198</v>
       </c>
     </row>
     <row r="11">
@@ -860,28 +860,28 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>1.146812754097318</v>
+        <v>1.017898471405803</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-2.991768573539046</v>
+        <v>-3.378598504617086</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>-1.834910509767644</v>
+        <v>-1.954474435532348</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>-1.457274034848183</v>
+        <v>-1.467447279022186</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.1017954432452857</v>
+        <v>0.08861565695026831</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>-0.3083139254901543</v>
+        <v>-0.3410428413354429</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>-0.1850685226561352</v>
+        <v>-0.1985839334660291</v>
       </c>
       <c r="J11" s="6" t="n">
-        <v>-0.1014614599523542</v>
+        <v>-0.1059084550449968</v>
       </c>
     </row>
     <row r="12">
@@ -892,28 +892,28 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>9.435885592509257</v>
+        <v>9.344757720083106</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>5.068649146490121</v>
+        <v>4.939429537666799</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>5.749320223435383</v>
+        <v>6.00243891303456</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>5.320409384256164</v>
+        <v>5.293865646351585</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>1.328715809524997</v>
+        <v>1.326273792830198</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.8861852633870653</v>
+        <v>0.7875687606949544</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.8920374633627879</v>
+        <v>0.9129878318972594</v>
       </c>
       <c r="J12" s="6" t="n">
-        <v>0.5117319442343745</v>
+        <v>0.5103660851417091</v>
       </c>
     </row>
     <row r="13">
@@ -949,7 +949,7 @@
         <v>0.5688697557594058</v>
       </c>
       <c r="J13" s="6" t="n">
-        <v>0.4704401930858657</v>
+        <v>0.4704401930858655</v>
       </c>
     </row>
     <row r="14">
@@ -960,28 +960,28 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>10.51344914976781</v>
+        <v>10.62654794118976</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>8.093001711429849</v>
+        <v>8.138811583188662</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>7.1539873152855</v>
+        <v>7.248716980476789</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>6.94517311596758</v>
+        <v>6.96221546094803</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.628174648892467</v>
+        <v>0.628660965549703</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.4445040652793383</v>
+        <v>0.4528079193767802</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4184506332510294</v>
+        <v>0.4213039626330953</v>
       </c>
       <c r="J14" s="6" t="n">
-        <v>0.3523843741641339</v>
+        <v>0.3601809546190585</v>
       </c>
     </row>
     <row r="15">
@@ -992,28 +992,28 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>14.66384889459873</v>
+        <v>14.44960736317985</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>12.04026043430987</v>
+        <v>12.31776554228384</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>11.11011473866449</v>
+        <v>11.1928712138141</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>10.58147248441126</v>
+        <v>10.5898305957505</v>
       </c>
       <c r="G15" s="6" t="n">
-        <v>0.9782984068573292</v>
+        <v>0.9553593024602133</v>
       </c>
       <c r="H15" s="6" t="n">
-        <v>0.7525523357410264</v>
+        <v>0.7598481328553204</v>
       </c>
       <c r="I15" s="6" t="n">
-        <v>0.7218637717723164</v>
+        <v>0.7384384852877856</v>
       </c>
       <c r="J15" s="6" t="n">
-        <v>0.5971335667361766</v>
+        <v>0.6080822348886207</v>
       </c>
     </row>
     <row r="16">
